--- a/reverseprimer-v3_28.xlsx
+++ b/reverseprimer-v3_28.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_28" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R2593-AGACTGAGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACTGAGAGGTCTCGTGGGCTCGG</t>
+    <t>R2593-CCTCTTGACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTCTTGACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R2594-CACCTTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACCTTCTACGTCTCGTGGGCTCGG</t>
+    <t>R2594-ACAACATCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACAACATCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R2595-GAGAACTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAGAACTGTTGTCTCGTGGGCTCGG</t>
+    <t>R2595-CGTTGGAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGGAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R2596-TCTCATGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCATGTCGGTCTCGTGGGCTCGG</t>
+    <t>R2596-CAGATGATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGATGATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R2597-CGTACCTGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTACCTGTTGTCTCGTGGGCTCGG</t>
+    <t>R2597-ACACCACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACCACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R2598-TGAAGACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAAGACTCTGTCTCGTGGGCTCGG</t>
+    <t>R2598-TGATCATGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGATCATGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R2599-ACGATCTGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGATCTGGAGTCTCGTGGGCTCGG</t>
+    <t>R2599-TGGAACACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAACACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R2600-CTTGCTTGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGCTTGCTGTCTCGTGGGCTCGG</t>
+    <t>R2600-CAAGTCAGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGTCAGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R2601-TGTCCTACCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGTCCTACCAGTCTCGTGGGCTCGG</t>
+    <t>R2601-TAGGAAGGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGGAAGGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R2602-TCTACCTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACCTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2602-GTTGCACTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTGCACTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R2603-AGAGATGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGATGCAGGTCTCGTGGGCTCGG</t>
+    <t>R2603-TTCAGGAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCAGGAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R2604-TAGACCTTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGACCTTCTGTCTCGTGGGCTCGG</t>
+    <t>R2604-ATCAAGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCAAGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R2605-ATGACACACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGACACACGGTCTCGTGGGCTCGG</t>
+    <t>R2605-ACACACAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACACAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R2606-TAGAACAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGAACAGCAGTCTCGTGGGCTCGG</t>
+    <t>R2606-CGTCATGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTCATGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R2607-GTGATGTAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGATGTAGGGTCTCGTGGGCTCGG</t>
+    <t>R2607-TGAGTCACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGTCACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R2608-GAACCACAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCACAGTGTCTCGTGGGCTCGG</t>
+    <t>R2608-CCTTCACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R2609-AGAGACTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGACTTCCGTCTCGTGGGCTCGG</t>
+    <t>R2609-CTGTACTCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTACTCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R2610-CTAGACTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGACTCTAGTCTCGTGGGCTCGG</t>
+    <t>R2610-AGGTTCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTCAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R2611-TAGTCCATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCATCGGTCTCGTGGGCTCGG</t>
+    <t>R2611-CAACTCATGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTCATGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R2612-GACTACACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTACACACGTCTCGTGGGCTCGG</t>
+    <t>R2612-CTGTTCGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTGTTCGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R2613-ACAGATCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGATCCATGTCTCGTGGGCTCGG</t>
+    <t>R2613-CCTTCAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCTTCAGTTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R2614-GAACCAAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACCAAGCAGTCTCGTGGGCTCGG</t>
+    <t>R2614-AAGGTGATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGTGATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R2615-TAGTCCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCCAGACGTCTCGTGGGCTCGG</t>
+    <t>R2615-CAAGGAAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAAGGAAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R2616-TAGGACTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGACTCTAGTCTCGTGGGCTCGG</t>
+    <t>R2616-GTACCTACAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACCTACACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R2617-AGCTGCTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTGCTAGAGTCTCGTGGGCTCGG</t>
+    <t>R2617-AGTCATCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTCATCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R2618-GGTCAGTTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTCAGTTGTGTCTCGTGGGCTCGG</t>
+    <t>R2618-TGACCAGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGACCAGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R2619-GCAAGTCAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTCAGAGTCTCGTGGGCTCGG</t>
+    <t>R2619-TTGGTCTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTCTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R2620-AACCTACACT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTACACTGTCTCGTGGGCTCGG</t>
+    <t>R2620-GAAGCAACTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAACTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R2621-AGAGAACTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGAACTCAGTCTCGTGGGCTCGG</t>
+    <t>R2621-TCACTCATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCACTCATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R2622-TAGGACGACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGACGACAGTCTCGTGGGCTCGG</t>
+    <t>R2622-TTGAGTCTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAGTCTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R2623-GGTACCATCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTACCATCTGTCTCGTGGGCTCGG</t>
+    <t>R2623-GAGGATGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGGATGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R2624-TACCTACGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTACGTAGTCTCGTGGGCTCGG</t>
+    <t>R2624-CGTGTGAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTGTGAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R2625-CTTGGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGGACGTTGTCTCGTGGGCTCGG</t>
+    <t>R2625-CTCACCTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCACCTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R2626-ATCCATCACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCCATCACCGTCTCGTGGGCTCGG</t>
+    <t>R2626-GAACTGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACTGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R2627-AACGTAGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGAGGGTCTCGTGGGCTCGG</t>
+    <t>R2627-AACGATGCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGATGCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R2628-CTGACACATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACACATCGTCTCGTGGGCTCGG</t>
+    <t>R2628-ACTGGAAGCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGAAGCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R2629-AGTCTCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCTCTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2629-ACTCACATGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCACATGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R2630-TCGACATCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGACATCAAGTCTCGTGGGCTCGG</t>
+    <t>R2630-ATGACGTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGACGTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R2631-CAACATCCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACATCCAGGTCTCGTGGGCTCGG</t>
+    <t>R2631-TTCGATCTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCGATCTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R2632-AGTAGCAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCAGCTGTCTCGTGGGCTCGG</t>
+    <t>R2632-TAGAAGCATG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAAGCATGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R2633-AACCTCTAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCTCTAGCGTCTCGTGGGCTCGG</t>
+    <t>R2633-CCAGACAAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCCAGACAAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R2634-TCGAGTCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCGAGTCACAGTCTCGTGGGCTCGG</t>
+    <t>R2634-TTGGTGATCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTGATCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R2635-TCAGTGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGGTACGTCTCGTGGGCTCGG</t>
+    <t>R2635-TCCTGGTACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTGGTACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R2636-GCTTCTGAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTTCTGAACGTCTCGTGGGCTCGG</t>
+    <t>R2636-CAGTAGAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTAGAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R2637-TCTCTTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCTTCCATGTCTCGTGGGCTCGG</t>
+    <t>R2637-ATGCAAGGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAAGGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R2638-AGATGGTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATGGTCAAGTCTCGTGGGCTCGG</t>
+    <t>R2638-TAGCAACCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCAACCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R2639-CGTCGATCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTCGATCATGTCTCGTGGGCTCGG</t>
+    <t>R2639-CAACTAGCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACTAGCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R2640-TCACTGTGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTGTGTGGTCTCGTGGGCTCGG</t>
+    <t>R2640-TCATGGACCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCATGGACCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R2641-ACGACTACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGACTACACGTCTCGTGGGCTCGG</t>
+    <t>R2641-ATCTTGCACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTTGCACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R2642-ACCTTGGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTTGGTCAGTCTCGTGGGCTCGG</t>
+    <t>R2642-GTAGTCTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTAGTCTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R2643-CAGATCAAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGATCAAGTGTCTCGTGGGCTCGG</t>
+    <t>R2643-GACGATGGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGATGGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R2644-GATCCATGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCCATGACGTCTCGTGGGCTCGG</t>
+    <t>R2644-GAGAAGTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGAAGTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R2645-TGCTCTCCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCTCCATGTCTCGTGGGCTCGG</t>
+    <t>R2645-GACGTAGTAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACGTAGTAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R2646-AGACGATCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACGATCCAGTCTCGTGGGCTCGG</t>
+    <t>R2646-CTCGTTCGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTCGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R2647-CATGTGGTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATGTGGTCTGTCTCGTGGGCTCGG</t>
+    <t>R2647-TCCATGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R2648-ACGAAGTCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAAGTCTCGTCTCGTGGGCTCGG</t>
+    <t>R2648-GACTGAGACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTGAGACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R2649-AAGGTCACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCACTGGTCTCGTGGGCTCGG</t>
+    <t>R2649-ATCTGACGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTGACGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R2650-TCTTGCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTTGCACACGTCTCGTGGGCTCGG</t>
+    <t>R2650-GTACGTCCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACGTCCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R2651-AGAAGAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAAGAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R2651-ACGAGCTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGCTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R2652-GTTCCATCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCCATCAGGTCTCGTGGGCTCGG</t>
+    <t>R2652-AAGAACTCGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGAACTCGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R2653-TCATCCATCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCATCCATCCGTCTCGTGGGCTCGG</t>
+    <t>R2653-ATCGATGGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGATGGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R2654-TGAGTGAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGTGAGACGTCTCGTGGGCTCGG</t>
+    <t>R2654-ATCACTGACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACTGACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R2655-ACAGTCAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTCAGAAGTCTCGTGGGCTCGG</t>
+    <t>R2655-CATGACAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATGACAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R2656-TACTGGTTGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTGGTTGGGTCTCGTGGGCTCGG</t>
+    <t>R2656-ACCTGAACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGAACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R2657-AACCACGTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACCACGTTGGTCTCGTGGGCTCGG</t>
+    <t>R2657-TACCTAGCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACCTAGCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R2658-GTGAAGTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGTTCGGTCTCGTGGGCTCGG</t>
+    <t>R2658-AGGTCAGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTCAGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R2659-CTCCAGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCCAGAGATGTCTCGTGGGCTCGG</t>
+    <t>R2659-AGAGGTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGGTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R2660-TTGTAGCTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGTAGCTTCGTCTCGTGGGCTCGG</t>
+    <t>R2660-AACAACGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACAACGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R2661-GTGAAGCATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGAAGCATCGTCTCGTGGGCTCGG</t>
+    <t>R2661-AAGACACAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGACACAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R2662-CTCACTCAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCACTCAACGTCTCGTGGGCTCGG</t>
+    <t>R2662-GACTACAGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTACAGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R2663-CGTTGGTCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTTGGTCTAGTCTCGTGGGCTCGG</t>
+    <t>R2663-GAAGCAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R2664-GTACCATGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTACCATGAAGTCTCGTGGGCTCGG</t>
+    <t>R2664-TAGAGTACCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGTACCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R2665-TTGACATGGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACATGGAGTCTCGTGGGCTCGG</t>
+    <t>R2665-AACTTGCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTTGCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R2666-GAAGTGTGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTGTGTCGTCTCGTGGGCTCGG</t>
+    <t>R2666-TACACATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACATGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R2667-GAACAGAGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACAGAGTAGTCTCGTGGGCTCGG</t>
+    <t>R2667-TACACACGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACACACGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R2668-AGTCAGTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTCAGTCTGGTCTCGTGGGCTCGG</t>
+    <t>R2668-TAGAACGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAACGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R2669-CTTGTGTTGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTGTGTTGCGTCTCGTGGGCTCGG</t>
+    <t>R2669-CTAGCAACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTAGCAACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R2670-GCATCATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCATCTGGTCTCGTGGGCTCGG</t>
+    <t>R2670-GCATGCTCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATGCTCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R2671-GACATGCAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACATGCAAGGTCTCGTGGGCTCGG</t>
+    <t>R2671-GTCTGTTCGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCTGTTCGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R2672-ACGAACACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAACACCTGTCTCGTGGGCTCGG</t>
+    <t>R2672-AACCTGTTCG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTGTTCGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R2673-TCTACAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTACAGTCGGTCTCGTGGGCTCGG</t>
+    <t>R2673-TAGCTCTAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCTAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R2674-AGGACTAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGACTAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2674-ATCACTCTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCACTCTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R2675-AGCTCGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTCGTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2675-TGGAGAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGAGAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R2676-AAGTACTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGTACTGGTGTCTCGTGGGCTCGG</t>
+    <t>R2676-GTTCTACTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTTCTACTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R2677-TCACTCACAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTCACACGTCTCGTGGGCTCGG</t>
+    <t>R2677-TCTGTGTGTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGTGTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R2678-CCTTGCTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTTGCTCTTGTCTCGTGGGCTCGG</t>
+    <t>R2678-GCTGTACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTGTACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R2679-AACAACCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACCTACGTCTCGTGGGCTCGG</t>
+    <t>R2679-AGTTCTCTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTTCTCTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R2680-ATGTCCACAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTCCACAGGTCTCGTGGGCTCGG</t>
+    <t>R2680-TCTCACTTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCACTTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R2681-CCTCAAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCCTCAAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R2681-AACTTGTCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTTGTCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R2682-AACACTACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACACTACGAGTCTCGTGGGCTCGG</t>
+    <t>R2682-TCGTCACCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTCACCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R2683-CAACATCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAACATCTCCGTCTCGTGGGCTCGG</t>
+    <t>R2683-ATGCTCGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTCGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R2684-ACGAGGTAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGAGGTAGTGTCTCGTGGGCTCGG</t>
+    <t>R2684-ATCCACATGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCCACATGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R2685-GGTTGTCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGTTGTCTACGTCTCGTGGGCTCGG</t>
+    <t>R2685-ACGAAGGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAAGGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R2686-ACATCAGCTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACATCAGCTAGTCTCGTGGGCTCGG</t>
+    <t>R2686-TGTGTGTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTGTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R2687-TCACTACACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACTACACCGTCTCGTGGGCTCGG</t>
+    <t>R2687-TCAGTGACAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCAGTGACAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R2688-AGACCAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGACCAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R2688-GTACTGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTACTGAAGCGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
